--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_beg.xlsx
@@ -1924,7 +1924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...You’ll still call her “Majesty” and “King.”
+    <t xml:space="preserve">[name="Kal'tsit"]  ...You’ll still call her 'Majesty' and 'King.'
 </t>
   </si>
   <si>
@@ -2048,7 +2048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ——! 
+    <t xml:space="preserve">[name="Kal'tsit"]  ——! 
 </t>
   </si>
   <si>
@@ -2196,7 +2196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I won’t let, Reunion, become “Infected, civil war, then nothing.” I will not.
+    <t xml:space="preserve">[name="Patriot"]  I won’t let, Reunion, become 'Infected, civil war, then nothing.' I will not.
 </t>
   </si>
   <si>
@@ -2300,7 +2300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  All of them, like “Patriot.” On the battlefield, they are nothing, but scraps.
+    <t xml:space="preserve">[name="Patriot"]  All of them, like 'Patriot.' On the battlefield, they are nothing, but scraps.
 </t>
   </si>
   <si>
@@ -2372,7 +2372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  You can’t... 
+    <t xml:space="preserve">[name="Amiya"]  You can’t... 
 </t>
   </si>
   <si>
@@ -2436,7 +2436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  My men said, I can fix them. In fact, they are too many. There is no, looking back. 
+    <t xml:space="preserve">[name="Patriot"]  My men said, I can fix them. In fact, they are too many. There is no, looking back. 
 </t>
   </si>
   <si>
@@ -2656,7 +2656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Our target is an Infected commander of the Reunion movement, code name: “Patriot.”
+    <t xml:space="preserve">[name="Kal'tsit"]  Our target is an Infected commander of the Reunion movement, code name: 'Patriot.'
 </t>
   </si>
   <si>
@@ -2704,7 +2704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’re a choice just like “go kill Talulah right now.” But I think that one carries more weight to him, might be worth further investigation.
+    <t xml:space="preserve">[name="Kal'tsit"]  We’re a choice just like 'go kill Talulah right now.' But I think that one carries more weight to him, might be worth further investigation.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-16_beg.xlsx
@@ -1872,7 +1872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s been a long time, Buldrokkas'tee.
+    <t xml:space="preserve">[name="Kal'tsit"]  It's been a long time, Buldrokkas'tee.
 </t>
   </si>
   <si>
@@ -1884,7 +1884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  Why don’t... you age?
+    <t xml:space="preserve">[name="Patriot"]  Why don't... you age?
 </t>
   </si>
   <si>
@@ -1904,15 +1904,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  No. Just, over time, became like this. I can’t, speak smoothly, anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  Dame... I never thought, I’d see you, again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I remember, faintly. When my people, left. You and, Her Majesty, didn’t stop us.
+    <t xml:space="preserve">[name="Patriot"]  No. Just, over time, became like this. I can't, speak smoothly, anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Dame... I never thought, I'd see you, again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I remember, faintly. When my people, left. You and, Her Majesty, didn't stop us.
 </t>
   </si>
   <si>
@@ -1924,7 +1924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...You’ll still call her 'Majesty' and 'King.'
+    <t xml:space="preserve">[name="Kal'tsit"]  ...You'll still call her 'Majesty' and 'King.'
 </t>
   </si>
   <si>
@@ -1932,7 +1932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  When I left, she wasn’t. Now, she has passed.
+    <t xml:space="preserve">[name="Patriot"]  When I left, she wasn't. Now, she has passed.
 </t>
   </si>
   <si>
@@ -1964,7 +1964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Not true. The years have changed us all, Buldrokkas'tee. I’m not the same woman I was before.
+    <t xml:space="preserve">[name="Kal'tsit"]  Not true. The years have changed us all, Buldrokkas'tee. I'm not the same woman I was before.
 </t>
   </si>
   <si>
@@ -1984,7 +1984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  All that you’ve been through has only tempered your will. Your blood still flows in your veins. I will not laugh at you. You’ve earned respect.
+    <t xml:space="preserve">[name="Kal'tsit"]  All that you've been through has only tempered your will. Your blood still flows in your veins. I will not laugh at you. You've earned respect.
 </t>
   </si>
   <si>
@@ -2104,11 +2104,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  She’s, so young. Only knows, blind trust.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  The truth, we believed, in the end, is exposed. Only a few, wolves, in sheep’s clothing.
+    <t xml:space="preserve">[name="Patriot"]  She's, so young. Only knows, blind trust.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  The truth, we believed, in the end, is exposed. Only a few, wolves, in sheep's clothing.
 </t>
   </si>
   <si>
@@ -2136,7 +2136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  (Amiya, don’t. Say no more.)
+    <t xml:space="preserve">[name="Kal'tsit"]  (Amiya, don't. Say no more.)
 </t>
   </si>
   <si>
@@ -2180,7 +2180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I won’t, betray again. Or they, the Infected, the struggle, are for nothing. They die.
+    <t xml:space="preserve">[name="Patriot"]  I won't, betray again. Or they, the Infected, the struggle, are for nothing. They die.
 </t>
   </si>
   <si>
@@ -2196,11 +2196,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I won’t let, Reunion, become 'Infected, civil war, then nothing.' I will not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But Reunion won’t be able to carry its own weight. And besides, Talulah has been working secretly to destroy Reunion from within.
+    <t xml:space="preserve">[name="Patriot"]  I won't let, Reunion, become 'Infected, civil war, then nothing.' I will not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But Reunion won't be able to carry its own weight. And besides, Talulah has been working secretly to destroy Reunion from within.
 </t>
   </si>
   <si>
@@ -2224,7 +2224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Buldrokkas'tee... You don’t have to die.
+    <t xml:space="preserve">[name="Kal'tsit"]  Buldrokkas'tee... You don't have to die.
 </t>
   </si>
   <si>
@@ -2236,7 +2236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Patriot, we don’t need to throw more lives away! This isn’t like it was with Miss FrostNova! No matter who wins, this battle is playing right into the enemy’s hands!
+    <t xml:space="preserve">[name="Amiya"]  Patriot, we don't need to throw more lives away! This isn't like it was with Miss FrostNova! No matter who wins, this battle is playing right into the enemy's hands!
 </t>
   </si>
   <si>
@@ -2268,7 +2268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  But we cannot, defeat ourselves. Cannot defeat, the Empire’s greed. Cannot defeat, our people’s deaths.
+    <t xml:space="preserve">[name="Patriot"]  But we cannot, defeat ourselves. Cannot defeat, the Empire's greed. Cannot defeat, our people's deaths.
 </t>
   </si>
   <si>
@@ -2308,7 +2308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  You killed her. I’ll kill you.
+    <t xml:space="preserve">[name="Patriot"]  You killed her. I'll kill you.
 </t>
   </si>
   <si>
@@ -2320,7 +2320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="No!;......;That’s not how it is, sir.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="No!;......;That's not how it is, sir.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2336,7 +2336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I don’t fight you, for my daughter.
+    <t xml:space="preserve">[name="Patriot"]  I don't fight you, for my daughter.
 </t>
   </si>
   <si>
@@ -2368,15 +2368,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I don’t want, for you, a foolish death. I won many times. I know this, too well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  You can’t... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Buldrokkas'tee, don’t be stupid, you can live on.
+    <t xml:space="preserve">[name="Patriot"]  I don't want, for you, a foolish death. I won many times. I know this, too well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You can't... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Buldrokkas'tee, don't be stupid, you can live on.
 </t>
   </si>
   <si>
@@ -2476,27 +2476,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...You’re trying to set up the guerrillas. You’re... you’re going to turn the Ursus Infected against them, to kill them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  You know they won’t raise a hand against the civilians.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Hate is the strongest weapon. It’s a killer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But he won’t die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He’s Patriot... he’s all the greatest legends summed up in one man. I’ve seen his armor. I’ve seen him swing a weapon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He can’t die! He and his people are the strongest fighters in all Reunion!
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...You're trying to set up the guerrillas. You're... you're going to turn the Ursus Infected against them, to kill them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  You know they won't raise a hand against the civilians.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Hate is the strongest weapon. It's a killer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But he won't die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He's Patriot... he's all the greatest legends summed up in one man. I've seen his armor. I've seen him swing a weapon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He can't die! He and his people are the strongest fighters in all Reunion!
 </t>
   </si>
   <si>
@@ -2504,23 +2504,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He’s Ursus... he’s Sarkaz, and he’s Infected! But none of those qualities push him to do wrong!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He’s not just Ursus, he’s not just Sarkaz, he’s not just an Infected. He’s the Patriot, just the Patriot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He’ll beat you, he’ll block your attacks, spit on your insults, regroup the Infected, and cleanse their hate...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He’s Patriot, and he won’t die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And you’re a bunch of maggots, dancing on the strings of the disgusting schemers running this show.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He's Ursus... he's Sarkaz, and he's Infected! But none of those qualities push him to do wrong!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He's not just Ursus, he's not just Sarkaz, he's not just an Infected. He's the Patriot, just the Patriot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He'll beat you, he'll block your attacks, spit on your insults, regroup the Infected, and cleanse their hate...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  He's Patriot, and he won't die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And you're a bunch of maggots, dancing on the strings of the disgusting schemers running this show.
 </t>
   </si>
   <si>
@@ -2528,15 +2528,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  You’re talking like that because you know you’re gonna die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  And you’re definitely right about that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Patriot’s pretty tough. But you’re not. You’re gonna die.
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  You're talking like that because you know you're gonna die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  And you're definitely right about that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"]  Patriot's pretty tough. But you're not. You're gonna die.
 </t>
   </si>
   <si>
@@ -2560,15 +2560,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What’s wrong with you?!;...How unreasonable.;I’m afraid I don’t really follow.", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  Of course, I don’t believe, you have any, value.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I don’t know, how you could, resist, my people’s, witchcraft. But you will not, survive, Ursus tactics.
+    <t xml:space="preserve">[Decision(options="What's wrong with you?!;...How unreasonable.;I'm afraid I don't really follow.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Of course, I don't believe, you have any, value.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I don't know, how you could, resist, my people's, witchcraft. But you will not, survive, Ursus tactics.
 </t>
   </si>
   <si>
@@ -2576,11 +2576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Patriot"]  I don’t hate, anyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I just don’t, trust you. I cannot, trust.
+    <t xml:space="preserve">[name="Patriot"]  I don't hate, anyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I just don't, trust you. I cannot, trust.
 </t>
   </si>
   <si>
@@ -2588,11 +2588,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You won’t approve of us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Patriot"]  I don’t believe, in coincidences.
+    <t xml:space="preserve">[name="Kal'tsit"]  You won't approve of us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I don't believe, in coincidences.
 </t>
   </si>
   <si>
@@ -2616,7 +2616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I can’t... I can’t understand him...!
+    <t xml:space="preserve">[name="Rosmontis"]  I can't... I can't understand him...!
 </t>
   </si>
   <si>
@@ -2668,7 +2668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  That’s the most we’ve been able to gather from our intel.
+    <t xml:space="preserve">[name="Kal'tsit"]  That's the most we've been able to gather from our intel.
 </t>
   </si>
   <si>
@@ -2676,7 +2676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Wendigos naturally exhibit an extremely high metabolic and repair capacity. And from where we stand, we don’t know whether his infection is causing him pain, or is a benign mutation.
+    <t xml:space="preserve">[name="Kal'tsit"]  Wendigos naturally exhibit an extremely high metabolic and repair capacity. And from where we stand, we don't know whether his infection is causing him pain, or is a benign mutation.
 </t>
   </si>
   <si>
@@ -2684,7 +2684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Only by killing him can we get through the central district, reach the bridge, and stop the enemy’s exploitation of Reunion!
+    <t xml:space="preserve">[name="Kal'tsit"]  Only by killing him can we get through the central district, reach the bridge, and stop the enemy's exploitation of Reunion!
 </t>
   </si>
   <si>
@@ -2692,47 +2692,47 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="What’s happening?;...Why?;How did it come to this?", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...We’re just a fork in his road. All that we’ve built means nothing to him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’re a choice just like 'go kill Talulah right now.' But I think that one carries more weight to him, might be worth further investigation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  To put it frankly, he’s looking down on us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Even with Dr. Kal’tsit here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even the Emperor of Ursus himself couldn’t get him to bow his head, let alone me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’ll have to use his death... to open his eyes, and make him see all that we’ve done, and make him realize that we’re stronger than him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But there’s no way he himself could ever... change. Everything else, all that you value, is too fragile for him. It can’t bear his weight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Hellagur from Azazel misjudged this Sarkaz’s character.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...No matter how noble Buldrokkas’tee may be, no matter how much he carries on his shoulders, he is an indomitable warrior, first and foremost.
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What's happening?;...Why?;How did it come to this?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...We're just a fork in his road. All that we've built means nothing to him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We're a choice just like 'go kill Talulah right now.' But I think that one carries more weight to him, might be worth further investigation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  To put it frankly, he's looking down on us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Even with Dr. Kal'tsit here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even the Emperor of Ursus himself couldn't get him to bow his head, let alone me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We'll have to use his death... to open his eyes, and make him see all that we've done, and make him realize that we're stronger than him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But there's no way he himself could ever... change. Everything else, all that you value, is too fragile for him. It can't bear his weight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Hellagur from Azazel misjudged this Sarkaz's character.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...No matter how noble Buldrokkas'tee may be, no matter how much he carries on his shoulders, he is an indomitable warrior, first and foremost.
 </t>
   </si>
   <si>
@@ -2740,7 +2740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  He doesn’t trust. He only trusts himself.
+    <t xml:space="preserve">[name="Kal'tsit"]  He doesn't trust. He only trusts himself.
 </t>
   </si>
   <si>
